--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/INVENTARIO ALMACEN  MAYO  -2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/INVENTARIO ALMACEN  MAYO  -2023 rtr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="11745" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="11745" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name=" E N E R O    2 0 2 3      " sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="104">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -533,6 +533,24 @@
   </si>
   <si>
     <t>CABEZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       NO REGISTRO LA ENTRADA   BETY    Ni GERARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diferencia en Inventario de GERARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       NO REGISTRO LA ENTRADA   BETY   Ni  GERARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO LO REPORTAN  BETY  Y GERARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferencias en el inventario de Gerardo </t>
+  </si>
+  <si>
+    <t>CON BETY CHECO CON TODOS LOS PRODUCTOS EXCEPTO ESOS 2 QUE NO INGRESO</t>
   </si>
 </sst>
 </file>
@@ -899,7 +917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,8 +1014,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="110">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -2386,13 +2422,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3223,6 +3274,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="17" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="18" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3351,6 +3414,61 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="18" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="18" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="18" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3362,16 +3480,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CC00"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFD60093"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF99CC00"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFF7EFFF"/>
       <color rgb="FF669900"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF800080"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3679,10 +3797,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="341"/>
+      <c r="B1" s="344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="345"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3694,21 +3812,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="342">
+      <c r="B2" s="346">
         <v>44955</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="F2" s="344" t="s">
+      <c r="C2" s="347"/>
+      <c r="F2" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="345" t="s">
+      <c r="K2" s="349" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="345"/>
+      <c r="L2" s="349"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -3718,30 +3836,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="346" t="s">
+      <c r="C3" s="350" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="347"/>
+      <c r="D3" s="351"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="348" t="s">
+      <c r="F3" s="352" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="349"/>
+      <c r="G3" s="353"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="350" t="s">
+      <c r="I3" s="354" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="353" t="s">
+      <c r="K3" s="349"/>
+      <c r="L3" s="349"/>
+      <c r="M3" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="354"/>
-      <c r="O3" s="355" t="s">
+      <c r="N3" s="358"/>
+      <c r="O3" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="356"/>
+      <c r="P3" s="360"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -3767,7 +3885,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="351"/>
+      <c r="I4" s="355"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -3828,8 +3946,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="357"/>
-      <c r="P5" s="357"/>
+      <c r="O5" s="361"/>
+      <c r="P5" s="361"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -3871,8 +3989,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="358"/>
-      <c r="P6" s="358"/>
+      <c r="O6" s="362"/>
+      <c r="P6" s="362"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -3955,8 +4073,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="359"/>
-      <c r="P8" s="359"/>
+      <c r="O8" s="363"/>
+      <c r="P8" s="363"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -4037,8 +4155,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="360"/>
-      <c r="P10" s="360"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -4166,8 +4284,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="361"/>
-      <c r="P13" s="361"/>
+      <c r="O13" s="365"/>
+      <c r="P13" s="365"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -4435,8 +4553,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="362"/>
-      <c r="P20" s="362"/>
+      <c r="O20" s="366"/>
+      <c r="P20" s="366"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -4521,8 +4639,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="363"/>
-      <c r="P22" s="363"/>
+      <c r="O22" s="367"/>
+      <c r="P22" s="367"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -4564,8 +4682,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="364"/>
-      <c r="P23" s="364"/>
+      <c r="O23" s="368"/>
+      <c r="P23" s="368"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -4687,8 +4805,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="365"/>
-      <c r="P26" s="365"/>
+      <c r="O26" s="369"/>
+      <c r="P26" s="369"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -5201,10 +5319,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="352" t="s">
+      <c r="F40" s="356" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="352"/>
+      <c r="G40" s="356"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -5465,10 +5583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="341"/>
+      <c r="B1" s="344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="345"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5483,26 +5601,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="366">
+      <c r="B2" s="370">
         <v>44989</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="F2" s="368" t="s">
+      <c r="C2" s="371"/>
+      <c r="F2" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="369"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="372" t="s">
+      <c r="G2" s="373"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="376" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="372"/>
-      <c r="L2" s="373"/>
+      <c r="K2" s="376"/>
+      <c r="L2" s="377"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="345" t="s">
+      <c r="N2" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="345"/>
+      <c r="O2" s="349"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -5512,33 +5630,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="376" t="s">
+      <c r="C3" s="380" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="377"/>
+      <c r="D3" s="381"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="378" t="s">
+      <c r="F3" s="382" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="379"/>
+      <c r="G3" s="383"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="380" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="375"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="379"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="353" t="s">
+      <c r="N3" s="349"/>
+      <c r="O3" s="349"/>
+      <c r="P3" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="355" t="s">
+      <c r="Q3" s="358"/>
+      <c r="R3" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="356"/>
+      <c r="S3" s="360"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -5564,7 +5682,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="385"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -5640,8 +5758,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="357"/>
-      <c r="S5" s="357"/>
+      <c r="R5" s="361"/>
+      <c r="S5" s="361"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -5678,8 +5796,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="358"/>
-      <c r="S6" s="358"/>
+      <c r="R6" s="362"/>
+      <c r="S6" s="362"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -5766,8 +5884,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
+      <c r="R8" s="363"/>
+      <c r="S8" s="363"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -5854,8 +5972,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="360"/>
-      <c r="S10" s="360"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -5995,8 +6113,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="361"/>
-      <c r="S13" s="361"/>
+      <c r="R13" s="365"/>
+      <c r="S13" s="365"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -6304,8 +6422,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -6392,8 +6510,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="363"/>
-      <c r="S22" s="363"/>
+      <c r="R22" s="367"/>
+      <c r="S22" s="367"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -6439,8 +6557,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
+      <c r="R23" s="368"/>
+      <c r="S23" s="368"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -6580,8 +6698,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="365"/>
-      <c r="S26" s="365"/>
+      <c r="R26" s="369"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -7264,10 +7382,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="352" t="s">
+      <c r="F43" s="356" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="352"/>
+      <c r="G43" s="356"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -7550,10 +7668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="341"/>
+      <c r="B1" s="344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="345"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7568,26 +7686,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="366">
+      <c r="B2" s="370">
         <v>45017</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="F2" s="368" t="s">
+      <c r="C2" s="371"/>
+      <c r="F2" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="369"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="372" t="s">
+      <c r="G2" s="373"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="376" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="372"/>
-      <c r="L2" s="373"/>
+      <c r="K2" s="376"/>
+      <c r="L2" s="377"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="345" t="s">
+      <c r="N2" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="345"/>
+      <c r="O2" s="349"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -7597,33 +7715,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="376" t="s">
+      <c r="C3" s="380" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="377"/>
+      <c r="D3" s="381"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="378" t="s">
+      <c r="F3" s="382" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="379"/>
+      <c r="G3" s="383"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="380" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="375"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="379"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="353" t="s">
+      <c r="N3" s="349"/>
+      <c r="O3" s="349"/>
+      <c r="P3" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="355" t="s">
+      <c r="Q3" s="358"/>
+      <c r="R3" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="356"/>
+      <c r="S3" s="360"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -7649,7 +7767,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="385"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -7724,8 +7842,8 @@
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="357"/>
-      <c r="S5" s="357"/>
+      <c r="R5" s="361"/>
+      <c r="S5" s="361"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -7778,8 +7896,8 @@
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="358"/>
-      <c r="S6" s="358"/>
+      <c r="R6" s="362"/>
+      <c r="S6" s="362"/>
       <c r="T6" s="180" t="s">
         <v>79</v>
       </c>
@@ -7884,8 +8002,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
+      <c r="R8" s="363"/>
+      <c r="S8" s="363"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -7972,8 +8090,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="360"/>
-      <c r="S10" s="360"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -8124,8 +8242,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="361"/>
-      <c r="S13" s="361"/>
+      <c r="R13" s="365"/>
+      <c r="S13" s="365"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -8458,8 +8576,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -8546,8 +8664,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="363"/>
-      <c r="S22" s="363"/>
+      <c r="R22" s="367"/>
+      <c r="S22" s="367"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -8596,8 +8714,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
+      <c r="R23" s="368"/>
+      <c r="S23" s="368"/>
       <c r="T23" s="180" t="s">
         <v>80</v>
       </c>
@@ -8736,8 +8854,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="365"/>
-      <c r="S26" s="365"/>
+      <c r="R26" s="369"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -9841,10 +9959,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="382" t="s">
+      <c r="F51" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="382"/>
+      <c r="G51" s="386"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
@@ -10107,7 +10225,7 @@
   <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -10134,10 +10252,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="341"/>
+      <c r="B1" s="344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="345"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10152,26 +10270,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="366">
+      <c r="B2" s="370">
         <v>45056</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="F2" s="368" t="s">
+      <c r="C2" s="371"/>
+      <c r="F2" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="369"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="372" t="s">
+      <c r="G2" s="373"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="376" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="372"/>
-      <c r="L2" s="373"/>
+      <c r="K2" s="376"/>
+      <c r="L2" s="377"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="345" t="s">
+      <c r="N2" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="345"/>
+      <c r="O2" s="349"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -10181,33 +10299,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="376" t="s">
+      <c r="C3" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="377"/>
+      <c r="D3" s="381"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="378" t="s">
+      <c r="F3" s="382" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="379"/>
+      <c r="G3" s="383"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="380" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="375"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="379"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="353" t="s">
+      <c r="N3" s="349"/>
+      <c r="O3" s="349"/>
+      <c r="P3" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="355" t="s">
+      <c r="Q3" s="358"/>
+      <c r="R3" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="356"/>
+      <c r="S3" s="360"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -10233,7 +10351,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="385"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -10304,8 +10422,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="357"/>
-      <c r="S5" s="357"/>
+      <c r="R5" s="361"/>
+      <c r="S5" s="361"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -10354,8 +10472,8 @@
         <f>I6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="358"/>
-      <c r="S6" s="358"/>
+      <c r="R6" s="362"/>
+      <c r="S6" s="362"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -10450,8 +10568,8 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
+      <c r="R8" s="363"/>
+      <c r="S8" s="363"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -10526,8 +10644,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="360"/>
-      <c r="S10" s="360"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -10648,8 +10766,8 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="R13" s="361"/>
-      <c r="S13" s="361"/>
+      <c r="R13" s="365"/>
+      <c r="S13" s="365"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -10930,8 +11048,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -11006,8 +11124,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="363"/>
-      <c r="S22" s="363"/>
+      <c r="R22" s="367"/>
+      <c r="S22" s="367"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -11052,8 +11170,8 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
+      <c r="R23" s="368"/>
+      <c r="S23" s="368"/>
       <c r="T23" s="180"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -11182,8 +11300,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="365"/>
-      <c r="S26" s="365"/>
+      <c r="R26" s="369"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -12189,10 +12307,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="382" t="s">
+      <c r="F51" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="382"/>
+      <c r="G51" s="386"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>51160.97</v>
@@ -12449,23 +12567,24 @@
   </sheetPr>
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="146" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="12" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="13" width="6.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="156" customWidth="1"/>
@@ -12473,14 +12592,14 @@
     <col min="17" max="17" width="10" style="146" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="41.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="341"/>
+      <c r="B1" s="344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="345"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -12495,26 +12614,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="366">
+      <c r="B2" s="370">
         <v>45082</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="F2" s="368" t="s">
+      <c r="C2" s="371"/>
+      <c r="F2" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="369"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="372" t="s">
+      <c r="G2" s="373"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="376" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="372"/>
-      <c r="L2" s="373"/>
+      <c r="K2" s="376"/>
+      <c r="L2" s="377"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="345" t="s">
+      <c r="N2" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="345"/>
+      <c r="O2" s="349"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -12524,33 +12643,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="376" t="s">
+      <c r="C3" s="380" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="377"/>
+      <c r="D3" s="381"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="378" t="s">
+      <c r="F3" s="382" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="379"/>
+      <c r="G3" s="383"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="380" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="375"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="379"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="353" t="s">
+      <c r="N3" s="349"/>
+      <c r="O3" s="349"/>
+      <c r="P3" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="355" t="s">
+      <c r="Q3" s="358"/>
+      <c r="R3" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="356"/>
+      <c r="S3" s="360"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -12576,7 +12695,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="385"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -12639,8 +12758,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="357"/>
-      <c r="S5" s="357"/>
+      <c r="R5" s="361"/>
+      <c r="S5" s="361"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -12675,18 +12794,22 @@
         <v>19</v>
       </c>
       <c r="M6" s="42"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="245"/>
+      <c r="N6" s="244">
+        <v>229.01</v>
+      </c>
+      <c r="O6" s="245">
+        <v>19</v>
+      </c>
       <c r="P6" s="325">
-        <f t="shared" ref="P6:Q50" si="1">H6-K6</f>
-        <v>0</v>
+        <f>N6-K6</f>
+        <v>-2.0000000000010232E-2</v>
       </c>
       <c r="Q6" s="326">
-        <f>I6-L6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="358"/>
-      <c r="S6" s="358"/>
+        <f>O6-L6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="362"/>
+      <c r="S6" s="362"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -12725,14 +12848,18 @@
         <v>7</v>
       </c>
       <c r="M7" s="42"/>
-      <c r="N7" s="244"/>
-      <c r="O7" s="245"/>
-      <c r="P7" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="328">
-        <f t="shared" si="1"/>
+      <c r="N7" s="244">
+        <v>85.96</v>
+      </c>
+      <c r="O7" s="245">
+        <v>7</v>
+      </c>
+      <c r="P7" s="325">
+        <f t="shared" ref="P7:P11" si="1">N7-K7</f>
+        <v>-5.0000000000011369E-2</v>
+      </c>
+      <c r="Q7" s="326">
+        <f t="shared" ref="Q7:Q11" si="2">O7-L7</f>
         <v>0</v>
       </c>
       <c r="R7" s="53"/>
@@ -12742,43 +12869,39 @@
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="28">
-        <v>12.39</v>
-      </c>
-      <c r="G8" s="31">
-        <v>1</v>
-      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="224">
         <f t="shared" si="0"/>
-        <v>12.39</v>
+        <v>0</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="219"/>
-      <c r="K8" s="318"/>
-      <c r="L8" s="319"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="214"/>
       <c r="M8" s="42"/>
       <c r="N8" s="244"/>
       <c r="O8" s="245"/>
-      <c r="P8" s="327">
+      <c r="P8" s="325">
         <f t="shared" si="1"/>
-        <v>12.39</v>
-      </c>
-      <c r="Q8" s="328">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="326">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="363"/>
+      <c r="S8" s="363"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -12807,12 +12930,12 @@
       <c r="M9" s="42"/>
       <c r="N9" s="244"/>
       <c r="O9" s="245"/>
-      <c r="P9" s="327">
+      <c r="P9" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="328">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="326">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="57"/>
@@ -12845,16 +12968,16 @@
       <c r="M10" s="42"/>
       <c r="N10" s="244"/>
       <c r="O10" s="245"/>
-      <c r="P10" s="327">
+      <c r="P10" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="360"/>
-      <c r="S10" s="360"/>
+      <c r="Q10" s="326">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -12889,14 +13012,18 @@
         <v>7</v>
       </c>
       <c r="M11" s="42"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="245"/>
-      <c r="P11" s="327">
+      <c r="N11" s="244">
+        <v>120.83</v>
+      </c>
+      <c r="O11" s="245">
+        <v>7</v>
+      </c>
+      <c r="P11" s="325">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="328">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="326">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="339"/>
@@ -12906,7 +13033,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30" t="s">
         <v>97</v>
       </c>
@@ -12928,22 +13055,28 @@
         <v>100</v>
       </c>
       <c r="J12" s="219"/>
-      <c r="K12" s="318"/>
-      <c r="L12" s="319"/>
+      <c r="K12" s="342"/>
+      <c r="L12" s="343"/>
       <c r="M12" s="42"/>
-      <c r="N12" s="244"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="327">
-        <f t="shared" si="1"/>
+      <c r="N12" s="388">
+        <v>0</v>
+      </c>
+      <c r="O12" s="389">
+        <v>0</v>
+      </c>
+      <c r="P12" s="341">
+        <f t="shared" ref="P6:Q50" si="3">H12-K12</f>
         <v>806</v>
       </c>
       <c r="Q12" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="R12" s="62"/>
       <c r="S12" s="63"/>
-      <c r="T12" s="45"/>
+      <c r="T12" s="392" t="s">
+        <v>98</v>
+      </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
@@ -12977,18 +13110,22 @@
         <v>17</v>
       </c>
       <c r="M13" s="42"/>
-      <c r="N13" s="244"/>
-      <c r="O13" s="245"/>
+      <c r="N13" s="244">
+        <v>170</v>
+      </c>
+      <c r="O13" s="245">
+        <v>17</v>
+      </c>
       <c r="P13" s="327">
-        <f t="shared" si="1"/>
+        <f>N13-H13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="361"/>
-      <c r="S13" s="361"/>
+        <f>O13-I13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="365"/>
+      <c r="S13" s="365"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -13023,14 +13160,18 @@
         <v>19</v>
       </c>
       <c r="M14" s="42"/>
-      <c r="N14" s="244"/>
-      <c r="O14" s="245"/>
+      <c r="N14" s="244">
+        <v>190</v>
+      </c>
+      <c r="O14" s="245">
+        <v>19</v>
+      </c>
       <c r="P14" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P14:P38" si="4">N14-H14</f>
         <v>0</v>
       </c>
       <c r="Q14" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q14:Q38" si="5">O14-I14</f>
         <v>0</v>
       </c>
       <c r="R14" s="67"/>
@@ -13069,14 +13210,18 @@
         <v>41</v>
       </c>
       <c r="M15" s="42"/>
-      <c r="N15" s="244"/>
-      <c r="O15" s="245"/>
+      <c r="N15" s="244">
+        <v>1388.36</v>
+      </c>
+      <c r="O15" s="245">
+        <v>41</v>
+      </c>
       <c r="P15" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="67"/>
@@ -13110,11 +13255,11 @@
       <c r="N16" s="244"/>
       <c r="O16" s="245"/>
       <c r="P16" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q16" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R16" s="69"/>
@@ -13148,11 +13293,11 @@
       <c r="N17" s="244"/>
       <c r="O17" s="245"/>
       <c r="P17" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17" s="69"/>
@@ -13195,19 +13340,25 @@
         <v>137</v>
       </c>
       <c r="M18" s="42"/>
-      <c r="N18" s="244"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N18" s="244">
+        <v>3775.53</v>
+      </c>
+      <c r="O18" s="245">
+        <v>145</v>
+      </c>
+      <c r="P18" s="331">
+        <f t="shared" si="4"/>
+        <v>110.24000000000024</v>
+      </c>
+      <c r="Q18" s="332">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="R18" s="71"/>
       <c r="S18" s="72"/>
-      <c r="T18" s="180"/>
+      <c r="T18" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
@@ -13220,14 +13371,14 @@
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
       <c r="F19" s="28">
-        <v>4881.16</v>
+        <v>4884.16</v>
       </c>
       <c r="G19" s="31">
         <v>176</v>
       </c>
       <c r="H19" s="227">
         <f t="shared" si="0"/>
-        <v>4881.16</v>
+        <v>4884.16</v>
       </c>
       <c r="I19" s="225">
         <f t="shared" si="0"/>
@@ -13241,14 +13392,18 @@
         <v>176</v>
       </c>
       <c r="M19" s="42"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="245"/>
+      <c r="N19" s="244">
+        <v>4912.76</v>
+      </c>
+      <c r="O19" s="245">
+        <v>176</v>
+      </c>
       <c r="P19" s="327">
-        <f t="shared" si="1"/>
-        <v>-3</v>
+        <f t="shared" si="4"/>
+        <v>28.600000000000364</v>
       </c>
       <c r="Q19" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R19" s="73"/>
@@ -13282,15 +13437,15 @@
       <c r="N20" s="244"/>
       <c r="O20" s="245"/>
       <c r="P20" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -13304,14 +13459,14 @@
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
       <c r="F21" s="28">
-        <v>1699.48</v>
+        <v>1609.48</v>
       </c>
       <c r="G21" s="31">
         <v>55</v>
       </c>
       <c r="H21" s="227">
         <f t="shared" si="0"/>
-        <v>1699.48</v>
+        <v>1609.48</v>
       </c>
       <c r="I21" s="225">
         <f t="shared" si="0"/>
@@ -13325,14 +13480,18 @@
         <v>55</v>
       </c>
       <c r="M21" s="42"/>
-      <c r="N21" s="244"/>
-      <c r="O21" s="245"/>
+      <c r="N21" s="244">
+        <v>1609.48</v>
+      </c>
+      <c r="O21" s="245">
+        <v>55</v>
+      </c>
       <c r="P21" s="327">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q21" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R21" s="75"/>
@@ -13366,15 +13525,15 @@
       <c r="N22" s="244"/>
       <c r="O22" s="245"/>
       <c r="P22" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="363"/>
-      <c r="S22" s="363"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="367"/>
+      <c r="S22" s="367"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -13409,60 +13568,70 @@
         <v>18</v>
       </c>
       <c r="M23" s="42"/>
-      <c r="N23" s="244"/>
-      <c r="O23" s="245"/>
-      <c r="P23" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="180"/>
+      <c r="N23" s="244">
+        <v>459.35</v>
+      </c>
+      <c r="O23" s="245">
+        <v>22</v>
+      </c>
+      <c r="P23" s="331">
+        <f t="shared" si="4"/>
+        <v>100.37</v>
+      </c>
+      <c r="Q23" s="332">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R23" s="368"/>
+      <c r="S23" s="368"/>
+      <c r="T23" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="30" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
       <c r="F24" s="28">
-        <v>1480.04</v>
+        <v>170.97</v>
       </c>
       <c r="G24" s="31">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="H24" s="227">
-        <f t="shared" si="0"/>
-        <v>1480.04</v>
+        <f>F24+C24</f>
+        <v>170.97</v>
       </c>
       <c r="I24" s="225">
-        <f t="shared" si="0"/>
-        <v>325</v>
+        <f>G24+D24</f>
+        <v>7</v>
       </c>
       <c r="J24" s="219"/>
       <c r="K24" s="279">
-        <v>1475.7</v>
+        <v>170.97</v>
       </c>
       <c r="L24" s="214">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="M24" s="42"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="245"/>
+      <c r="N24" s="244">
+        <v>170.97</v>
+      </c>
+      <c r="O24" s="245">
+        <v>7</v>
+      </c>
       <c r="P24" s="327">
-        <f t="shared" si="1"/>
-        <v>4.3399999999999181</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q24" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R24" s="81"/>
@@ -13474,42 +13643,46 @@
     </row>
     <row r="25" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="28">
-        <v>227.8</v>
-      </c>
-      <c r="D25" s="29">
-        <v>8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
+      <c r="F25" s="28">
+        <v>1475.5</v>
+      </c>
+      <c r="G25" s="31">
+        <v>325</v>
+      </c>
       <c r="H25" s="227">
-        <f t="shared" si="0"/>
-        <v>227.8</v>
+        <f>F25+C25</f>
+        <v>1475.5</v>
       </c>
       <c r="I25" s="225">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>G25+D25</f>
+        <v>325</v>
       </c>
       <c r="J25" s="219"/>
       <c r="K25" s="279">
-        <v>227.8</v>
+        <v>1475.7</v>
       </c>
       <c r="L25" s="214">
-        <v>8</v>
+        <v>325</v>
       </c>
       <c r="M25" s="42"/>
-      <c r="N25" s="244"/>
-      <c r="O25" s="245"/>
+      <c r="N25" s="244">
+        <v>1484.58</v>
+      </c>
+      <c r="O25" s="245">
+        <v>327</v>
+      </c>
       <c r="P25" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9.0799999999999272</v>
       </c>
       <c r="Q25" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="R25" s="83"/>
       <c r="S25" s="84"/>
@@ -13520,46 +13693,52 @@
     </row>
     <row r="26" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="28">
+        <v>227.8</v>
+      </c>
+      <c r="D26" s="29">
+        <v>8</v>
+      </c>
       <c r="E26" s="30"/>
-      <c r="F26" s="28">
-        <v>170.97</v>
-      </c>
-      <c r="G26" s="31">
-        <v>7</v>
-      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="227">
-        <f t="shared" si="0"/>
-        <v>170.97</v>
+        <f>F26+C26</f>
+        <v>227.8</v>
       </c>
       <c r="I26" s="225">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>G26+D26</f>
+        <v>8</v>
       </c>
       <c r="J26" s="219"/>
       <c r="K26" s="279">
-        <v>170.97</v>
+        <v>227.8</v>
       </c>
       <c r="L26" s="214">
+        <v>8</v>
+      </c>
+      <c r="M26" s="42"/>
+      <c r="N26" s="244">
+        <v>202.16</v>
+      </c>
+      <c r="O26" s="245">
         <v>7</v>
       </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="244"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="365"/>
-      <c r="S26" s="365"/>
-      <c r="T26" s="45"/>
+      <c r="P26" s="331">
+        <f t="shared" si="4"/>
+        <v>-25.640000000000015</v>
+      </c>
+      <c r="Q26" s="332">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="R26" s="369"/>
+      <c r="S26" s="369"/>
+      <c r="T26" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -13578,11 +13757,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="227">
-        <f t="shared" si="0"/>
+        <f>F27+C27</f>
         <v>15.26</v>
       </c>
       <c r="I27" s="225">
-        <f t="shared" si="0"/>
+        <f>G27+D27</f>
         <v>1</v>
       </c>
       <c r="J27" s="219"/>
@@ -13593,14 +13772,18 @@
         <v>1</v>
       </c>
       <c r="M27" s="42"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="245"/>
+      <c r="N27" s="244">
+        <v>15.27</v>
+      </c>
+      <c r="O27" s="245">
+        <v>1</v>
+      </c>
       <c r="P27" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="Q27" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R27" s="211"/>
@@ -13618,17 +13801,17 @@
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
       <c r="F28" s="87">
-        <v>2217.4299999999998</v>
+        <v>2227.4299999999998</v>
       </c>
       <c r="G28" s="88">
         <v>85</v>
       </c>
       <c r="H28" s="227">
-        <f t="shared" si="0"/>
-        <v>2217.4299999999998</v>
+        <f>F28+C28</f>
+        <v>2227.4299999999998</v>
       </c>
       <c r="I28" s="225">
-        <f t="shared" si="0"/>
+        <f>G28+D28</f>
         <v>85</v>
       </c>
       <c r="J28" s="219"/>
@@ -13639,19 +13822,25 @@
         <v>85</v>
       </c>
       <c r="M28" s="42"/>
-      <c r="N28" s="244"/>
-      <c r="O28" s="245"/>
-      <c r="P28" s="327">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="Q28" s="328">
-        <f t="shared" si="1"/>
+      <c r="N28" s="244">
+        <v>2194.92</v>
+      </c>
+      <c r="O28" s="245">
+        <v>85</v>
+      </c>
+      <c r="P28" s="331">
+        <f t="shared" si="4"/>
+        <v>-32.509999999999764</v>
+      </c>
+      <c r="Q28" s="332">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R28" s="211"/>
       <c r="S28" s="211"/>
-      <c r="T28" s="45"/>
+      <c r="T28" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
@@ -13666,11 +13855,11 @@
       <c r="F29" s="87"/>
       <c r="G29" s="88"/>
       <c r="H29" s="227">
-        <f t="shared" si="0"/>
+        <f>F29+C29</f>
         <v>0</v>
       </c>
       <c r="I29" s="225">
-        <f t="shared" si="0"/>
+        <f>G29+D29</f>
         <v>0</v>
       </c>
       <c r="J29" s="219"/>
@@ -13679,12 +13868,12 @@
       <c r="M29" s="42"/>
       <c r="N29" s="244"/>
       <c r="O29" s="245"/>
-      <c r="P29" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="328">
-        <f t="shared" si="1"/>
+      <c r="P29" s="331">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="332">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R29" s="211"/>
@@ -13708,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="225">
-        <f t="shared" si="0"/>
+        <f>G30+D30</f>
         <v>0</v>
       </c>
       <c r="J30" s="219"/>
@@ -13717,12 +13906,12 @@
       <c r="M30" s="42"/>
       <c r="N30" s="244"/>
       <c r="O30" s="245"/>
-      <c r="P30" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="328">
-        <f t="shared" si="1"/>
+      <c r="P30" s="331">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="332">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30" s="90"/>
@@ -13737,7 +13926,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="28">
-        <v>9333.74</v>
+        <v>9328.32</v>
       </c>
       <c r="D31" s="29">
         <v>343</v>
@@ -13750,11 +13939,11 @@
         <v>679</v>
       </c>
       <c r="H31" s="226">
-        <f t="shared" si="0"/>
-        <v>27813.08</v>
+        <f>F31+C31</f>
+        <v>27807.66</v>
       </c>
       <c r="I31" s="228">
-        <f t="shared" si="0"/>
+        <f>G31+D31</f>
         <v>1022</v>
       </c>
       <c r="J31" s="219"/>
@@ -13765,60 +13954,70 @@
         <v>1022</v>
       </c>
       <c r="M31" s="42"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="327">
-        <f t="shared" si="1"/>
-        <v>5.4200000000018917</v>
-      </c>
-      <c r="Q31" s="328">
-        <f t="shared" si="1"/>
+      <c r="N31" s="244">
+        <v>27818.84</v>
+      </c>
+      <c r="O31" s="245">
+        <v>1022</v>
+      </c>
+      <c r="P31" s="331">
+        <f t="shared" si="4"/>
+        <v>11.180000000000291</v>
+      </c>
+      <c r="Q31" s="332">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R31" s="92"/>
       <c r="S31" s="93"/>
-      <c r="T31" s="45"/>
+      <c r="T31" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
     </row>
     <row r="32" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="212" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C32" s="28">
-        <v>3290</v>
+        <v>4040</v>
       </c>
       <c r="D32" s="29">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="87"/>
       <c r="G32" s="88"/>
       <c r="H32" s="226">
-        <f t="shared" si="0"/>
-        <v>3290</v>
+        <f>F32+C32</f>
+        <v>4040</v>
       </c>
       <c r="I32" s="228">
-        <f t="shared" si="0"/>
-        <v>329</v>
+        <f>G32+D32</f>
+        <v>404</v>
       </c>
       <c r="J32" s="219"/>
       <c r="K32" s="279">
-        <v>3290</v>
+        <v>4040</v>
       </c>
       <c r="L32" s="214">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="M32" s="42"/>
-      <c r="N32" s="244"/>
-      <c r="O32" s="245"/>
+      <c r="N32" s="244">
+        <v>4040</v>
+      </c>
+      <c r="O32" s="245">
+        <v>404</v>
+      </c>
       <c r="P32" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32" s="92"/>
@@ -13830,41 +14029,45 @@
     </row>
     <row r="33" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="212" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="28">
-        <v>4040</v>
+        <v>2370</v>
       </c>
       <c r="D33" s="29">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="87"/>
       <c r="G33" s="88"/>
       <c r="H33" s="226">
-        <f t="shared" si="0"/>
-        <v>4040</v>
+        <f>F33+C33</f>
+        <v>2370</v>
       </c>
       <c r="I33" s="228">
-        <f t="shared" si="0"/>
-        <v>404</v>
+        <f>G33+D33</f>
+        <v>237</v>
       </c>
       <c r="J33" s="219"/>
       <c r="K33" s="279">
-        <v>4040</v>
+        <v>2370</v>
       </c>
       <c r="L33" s="214">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="M33" s="42"/>
-      <c r="N33" s="244"/>
-      <c r="O33" s="245"/>
+      <c r="N33" s="244">
+        <v>2370</v>
+      </c>
+      <c r="O33" s="245">
+        <v>237</v>
+      </c>
       <c r="P33" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R33" s="94"/>
@@ -13876,41 +14079,45 @@
     </row>
     <row r="34" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="262" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C34" s="96">
-        <v>2370</v>
+        <v>3290</v>
       </c>
       <c r="D34" s="97">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="E34" s="98"/>
       <c r="F34" s="96"/>
       <c r="G34" s="103"/>
       <c r="H34" s="226">
-        <f t="shared" si="0"/>
-        <v>2370</v>
+        <f>F34+C34</f>
+        <v>3290</v>
       </c>
       <c r="I34" s="228">
-        <f t="shared" si="0"/>
-        <v>237</v>
+        <f>G34+D34</f>
+        <v>329</v>
       </c>
       <c r="J34" s="219"/>
       <c r="K34" s="279">
-        <v>2370</v>
+        <v>3290</v>
       </c>
       <c r="L34" s="214">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="M34" s="42"/>
-      <c r="N34" s="244"/>
-      <c r="O34" s="245"/>
+      <c r="N34" s="244">
+        <v>3290</v>
+      </c>
+      <c r="O34" s="245">
+        <v>329</v>
+      </c>
       <c r="P34" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q34" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R34" s="100"/>
@@ -13930,11 +14137,11 @@
       <c r="F35" s="96"/>
       <c r="G35" s="103"/>
       <c r="H35" s="226">
-        <f t="shared" si="0"/>
+        <f>F35+C35</f>
         <v>0</v>
       </c>
       <c r="I35" s="228">
-        <f t="shared" si="0"/>
+        <f>G35+D35</f>
         <v>0</v>
       </c>
       <c r="J35" s="219"/>
@@ -13944,11 +14151,11 @@
       <c r="N35" s="244"/>
       <c r="O35" s="245"/>
       <c r="P35" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q35" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R35" s="104"/>
@@ -13960,84 +14167,83 @@
     </row>
     <row r="36" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="102" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="C36" s="96"/>
       <c r="D36" s="97"/>
       <c r="E36" s="102"/>
       <c r="F36" s="96">
-        <v>4473.67</v>
+        <v>902.38</v>
       </c>
       <c r="G36" s="103">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="H36" s="226">
-        <f t="shared" si="0"/>
-        <v>4473.67</v>
+        <f>F36+C36</f>
+        <v>902.38</v>
       </c>
       <c r="I36" s="228">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f>G36+D36</f>
+        <v>34</v>
       </c>
       <c r="J36" s="219"/>
-      <c r="K36" s="279"/>
-      <c r="L36" s="214"/>
+      <c r="K36" s="279">
+        <v>902.38</v>
+      </c>
+      <c r="L36" s="214">
+        <v>24</v>
+      </c>
       <c r="M36" s="42"/>
-      <c r="N36" s="244"/>
-      <c r="O36" s="245"/>
+      <c r="N36" s="244">
+        <v>902.38</v>
+      </c>
+      <c r="O36" s="245">
+        <v>34</v>
+      </c>
       <c r="P36" s="327">
-        <f t="shared" si="1"/>
-        <v>4473.67</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="328">
-        <f t="shared" si="1"/>
-        <v>155</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="R36" s="104"/>
       <c r="S36" s="105"/>
-      <c r="T36" s="45"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
     </row>
-    <row r="37" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="110" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="102"/>
-      <c r="F37" s="96">
-        <v>902.38</v>
-      </c>
-      <c r="G37" s="103">
-        <v>34</v>
-      </c>
+      <c r="F37" s="96"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="226">
-        <f t="shared" si="0"/>
-        <v>902.38</v>
+        <f>F37+C37</f>
+        <v>0</v>
       </c>
       <c r="I37" s="228">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>G37+D37</f>
+        <v>0</v>
       </c>
       <c r="J37" s="219"/>
-      <c r="K37" s="279">
-        <v>902.38</v>
-      </c>
-      <c r="L37" s="214">
-        <v>24</v>
-      </c>
+      <c r="K37" s="279"/>
+      <c r="L37" s="214"/>
       <c r="M37" s="42"/>
       <c r="N37" s="244"/>
       <c r="O37" s="245"/>
       <c r="P37" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q37" s="328">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="R37" s="107"/>
       <c r="S37" s="108"/>
@@ -14048,39 +14254,53 @@
     </row>
     <row r="38" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="109"/>
-      <c r="B38" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="387" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="28">
+        <v>3422.27</v>
+      </c>
+      <c r="D38" s="29">
+        <v>150</v>
+      </c>
       <c r="E38" s="102"/>
       <c r="F38" s="96"/>
       <c r="G38" s="103"/>
       <c r="H38" s="226">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F38+C38</f>
+        <v>3422.27</v>
       </c>
       <c r="I38" s="228">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G38+D38</f>
+        <v>150</v>
       </c>
       <c r="J38" s="219"/>
-      <c r="K38" s="279"/>
-      <c r="L38" s="214"/>
+      <c r="K38" s="279">
+        <v>3422.27</v>
+      </c>
+      <c r="L38" s="214">
+        <v>150</v>
+      </c>
       <c r="M38" s="42"/>
-      <c r="N38" s="244"/>
-      <c r="O38" s="245"/>
-      <c r="P38" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N38" s="244">
+        <v>3356.25</v>
+      </c>
+      <c r="O38" s="245">
+        <v>148</v>
+      </c>
+      <c r="P38" s="331">
+        <f t="shared" si="4"/>
+        <v>-66.019999999999982</v>
+      </c>
+      <c r="Q38" s="332">
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
       <c r="R38" s="107"/>
       <c r="S38" s="108"/>
-      <c r="T38" s="45"/>
+      <c r="T38" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -14095,11 +14315,11 @@
       <c r="F39" s="96"/>
       <c r="G39" s="103"/>
       <c r="H39" s="229">
-        <f t="shared" si="0"/>
+        <f>F39+C39</f>
         <v>0</v>
       </c>
       <c r="I39" s="230">
-        <f t="shared" si="0"/>
+        <f>G39+D39</f>
         <v>0</v>
       </c>
       <c r="J39" s="219"/>
@@ -14109,11 +14329,11 @@
       <c r="N39" s="244"/>
       <c r="O39" s="245"/>
       <c r="P39" s="327">
-        <f t="shared" si="1"/>
+        <f>H39-K39</f>
         <v>0</v>
       </c>
       <c r="Q39" s="328">
-        <f t="shared" si="1"/>
+        <f>I39-L39</f>
         <v>0</v>
       </c>
       <c r="R39" s="114"/>
@@ -14123,48 +14343,50 @@
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
     </row>
-    <row r="40" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="115">
-        <v>3422.27</v>
-      </c>
-      <c r="D40" s="29">
-        <v>150</v>
-      </c>
+    <row r="40" spans="1:23" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="102"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="103"/>
+      <c r="F40" s="96">
+        <v>4473.67</v>
+      </c>
+      <c r="G40" s="103">
+        <v>155</v>
+      </c>
       <c r="H40" s="229">
-        <f t="shared" si="0"/>
-        <v>3422.27</v>
+        <f>F40+C40</f>
+        <v>4473.67</v>
       </c>
       <c r="I40" s="230">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>G40+D40</f>
+        <v>155</v>
       </c>
       <c r="J40" s="219"/>
-      <c r="K40" s="279">
-        <v>3422.27</v>
-      </c>
-      <c r="L40" s="214">
-        <v>150</v>
-      </c>
+      <c r="K40" s="342"/>
+      <c r="L40" s="343"/>
       <c r="M40" s="42"/>
-      <c r="N40" s="244"/>
-      <c r="O40" s="245"/>
-      <c r="P40" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="328">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N40" s="244">
+        <v>0</v>
+      </c>
+      <c r="O40" s="245">
+        <v>0</v>
+      </c>
+      <c r="P40" s="340">
+        <f>H40-K40</f>
+        <v>4473.67</v>
+      </c>
+      <c r="Q40" s="391">
+        <f>I40-L40</f>
+        <v>155</v>
       </c>
       <c r="R40" s="116"/>
       <c r="S40" s="117"/>
-      <c r="T40" s="180"/>
+      <c r="T40" s="392" t="s">
+        <v>100</v>
+      </c>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
@@ -14179,11 +14401,11 @@
       <c r="F41" s="96"/>
       <c r="G41" s="258"/>
       <c r="H41" s="257">
-        <f t="shared" ref="H41:I50" si="2">F41+C41</f>
+        <f>F41+C41</f>
         <v>0</v>
       </c>
       <c r="I41" s="230">
-        <f t="shared" si="2"/>
+        <f>G41+D41</f>
         <v>0</v>
       </c>
       <c r="J41" s="219"/>
@@ -14193,11 +14415,11 @@
       <c r="N41" s="244"/>
       <c r="O41" s="245"/>
       <c r="P41" s="327">
-        <f t="shared" si="1"/>
+        <f>H41-K41</f>
         <v>0</v>
       </c>
       <c r="Q41" s="328">
-        <f t="shared" si="1"/>
+        <f>I41-L41</f>
         <v>0</v>
       </c>
       <c r="R41" s="116"/>
@@ -14217,11 +14439,11 @@
       <c r="F42" s="96"/>
       <c r="G42" s="258"/>
       <c r="H42" s="257">
-        <f t="shared" si="2"/>
+        <f>F42+C42</f>
         <v>0</v>
       </c>
       <c r="I42" s="230">
-        <f t="shared" si="2"/>
+        <f>G42+D42</f>
         <v>0</v>
       </c>
       <c r="J42" s="220"/>
@@ -14231,11 +14453,11 @@
       <c r="N42" s="244"/>
       <c r="O42" s="245"/>
       <c r="P42" s="327">
-        <f t="shared" si="1"/>
+        <f>H42-K42</f>
         <v>0</v>
       </c>
       <c r="Q42" s="328">
-        <f t="shared" si="1"/>
+        <f>I42-L42</f>
         <v>0</v>
       </c>
       <c r="R42" s="129"/>
@@ -14255,11 +14477,11 @@
       <c r="F43" s="28"/>
       <c r="G43" s="259"/>
       <c r="H43" s="257">
-        <f t="shared" si="2"/>
+        <f>F43+C43</f>
         <v>0</v>
       </c>
       <c r="I43" s="230">
-        <f t="shared" si="2"/>
+        <f>G43+D43</f>
         <v>0</v>
       </c>
       <c r="J43" s="219"/>
@@ -14269,11 +14491,11 @@
       <c r="N43" s="244"/>
       <c r="O43" s="245"/>
       <c r="P43" s="327">
-        <f t="shared" si="1"/>
+        <f>H43-K43</f>
         <v>0</v>
       </c>
       <c r="Q43" s="328">
-        <f t="shared" si="1"/>
+        <f>I43-L43</f>
         <v>0</v>
       </c>
       <c r="R43" s="107"/>
@@ -14283,7 +14505,7 @@
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
     </row>
-    <row r="44" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="18.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="324" t="s">
         <v>42</v>
       </c>
@@ -14293,11 +14515,11 @@
       <c r="F44" s="28"/>
       <c r="G44" s="259"/>
       <c r="H44" s="257">
-        <f t="shared" si="2"/>
+        <f>F44+C44</f>
         <v>0</v>
       </c>
       <c r="I44" s="230">
-        <f t="shared" si="2"/>
+        <f>G44+D44</f>
         <v>0</v>
       </c>
       <c r="J44" s="219"/>
@@ -14307,11 +14529,11 @@
       <c r="N44" s="244"/>
       <c r="O44" s="245"/>
       <c r="P44" s="327">
-        <f t="shared" si="1"/>
+        <f>H44-K44</f>
         <v>0</v>
       </c>
       <c r="Q44" s="328">
-        <f t="shared" si="1"/>
+        <f>I44-L44</f>
         <v>0</v>
       </c>
       <c r="R44" s="107"/>
@@ -14335,11 +14557,11 @@
         <v>4</v>
       </c>
       <c r="H45" s="257">
-        <f t="shared" si="2"/>
+        <f>F45+C45</f>
         <v>123.43</v>
       </c>
       <c r="I45" s="230">
-        <f t="shared" si="2"/>
+        <f>G45+D45</f>
         <v>4</v>
       </c>
       <c r="J45" s="219"/>
@@ -14350,14 +14572,18 @@
         <v>4</v>
       </c>
       <c r="M45" s="124"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="245"/>
+      <c r="N45" s="244">
+        <v>123.13</v>
+      </c>
+      <c r="O45" s="245">
+        <v>4</v>
+      </c>
       <c r="P45" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N45-H45</f>
+        <v>-0.30000000000001137</v>
       </c>
       <c r="Q45" s="328">
-        <f t="shared" si="1"/>
+        <f>O45-I45</f>
         <v>0</v>
       </c>
       <c r="R45" s="107"/>
@@ -14381,11 +14607,11 @@
       <c r="F46" s="28"/>
       <c r="G46" s="259"/>
       <c r="H46" s="257">
-        <f t="shared" si="2"/>
+        <f>F46+C46</f>
         <v>185.3</v>
       </c>
       <c r="I46" s="230">
-        <f t="shared" si="2"/>
+        <f>G46+D46</f>
         <v>5</v>
       </c>
       <c r="J46" s="219"/>
@@ -14396,19 +14622,25 @@
         <v>5</v>
       </c>
       <c r="M46" s="124"/>
-      <c r="N46" s="244"/>
-      <c r="O46" s="245"/>
-      <c r="P46" s="327">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="328">
-        <f t="shared" si="1"/>
+      <c r="N46" s="244">
+        <v>132.91999999999999</v>
+      </c>
+      <c r="O46" s="245">
+        <v>5</v>
+      </c>
+      <c r="P46" s="331">
+        <f t="shared" ref="P46:P47" si="6">N46-H46</f>
+        <v>-52.380000000000024</v>
+      </c>
+      <c r="Q46" s="332">
+        <f t="shared" ref="Q46:Q47" si="7">O46-I46</f>
         <v>0</v>
       </c>
       <c r="R46" s="107"/>
       <c r="S46" s="108"/>
-      <c r="T46" s="180"/>
+      <c r="T46" s="390" t="s">
+        <v>99</v>
+      </c>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
@@ -14431,11 +14663,11 @@
         <v>85</v>
       </c>
       <c r="H47" s="257">
-        <f t="shared" si="2"/>
+        <f>F47+C47</f>
         <v>2191.81</v>
       </c>
       <c r="I47" s="230">
-        <f t="shared" si="2"/>
+        <f>G47+D47</f>
         <v>95</v>
       </c>
       <c r="J47" s="219"/>
@@ -14446,14 +14678,18 @@
         <v>95</v>
       </c>
       <c r="M47" s="124"/>
-      <c r="N47" s="244"/>
-      <c r="O47" s="245"/>
+      <c r="N47" s="244">
+        <v>2191.81</v>
+      </c>
+      <c r="O47" s="245">
+        <v>95</v>
+      </c>
       <c r="P47" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q47" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R47" s="107"/>
@@ -14473,11 +14709,11 @@
       <c r="F48" s="274"/>
       <c r="G48" s="276"/>
       <c r="H48" s="257">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H41:I50" si="8">F48+C48</f>
         <v>0</v>
       </c>
       <c r="I48" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J48" s="219"/>
@@ -14487,11 +14723,11 @@
       <c r="N48" s="244"/>
       <c r="O48" s="245"/>
       <c r="P48" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q48" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R48" s="107"/>
@@ -14509,11 +14745,11 @@
       <c r="F49" s="28"/>
       <c r="G49" s="259"/>
       <c r="H49" s="257">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I49" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J49" s="219"/>
@@ -14523,11 +14759,11 @@
       <c r="N49" s="244"/>
       <c r="O49" s="245"/>
       <c r="P49" s="327">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q49" s="328">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R49" s="107"/>
@@ -14545,11 +14781,11 @@
       <c r="F50" s="275"/>
       <c r="G50" s="277"/>
       <c r="H50" s="257">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I50" s="230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J50" s="6"/>
@@ -14559,11 +14795,11 @@
       <c r="N50" s="246"/>
       <c r="O50" s="247"/>
       <c r="P50" s="329">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q50" s="330">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R50" s="143"/>
@@ -14576,17 +14812,17 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="382" t="s">
+      <c r="F51" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="382"/>
+      <c r="G51" s="386"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
-        <v>55232.11</v>
+        <v>55132.759999999995</v>
       </c>
       <c r="I51" s="149">
         <f>SUM(I5:I34)</f>
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="J51" s="149"/>
       <c r="K51" s="149"/>
@@ -14594,7 +14830,7 @@
       <c r="M51" s="150"/>
       <c r="N51" s="151">
         <f>SUM(N5:N42)</f>
-        <v>0</v>
+        <v>58786.65</v>
       </c>
       <c r="O51" s="152" t="s">
         <v>47</v>
@@ -14630,13 +14866,13 @@
       <c r="W53" s="13"/>
     </row>
     <row r="54" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="162" t="s">
+      <c r="C54" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="163"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="165"/>
+      <c r="D54" s="396"/>
+      <c r="E54" s="397"/>
+      <c r="F54" s="397"/>
+      <c r="G54" s="398"/>
       <c r="H54" s="166"/>
       <c r="I54" s="166"/>
       <c r="J54" s="166"/>
@@ -14671,18 +14907,18 @@
     </row>
     <row r="56" spans="2:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="175"/>
-      <c r="C56" s="333" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="334"/>
-      <c r="E56" s="335"/>
-      <c r="F56" s="335"/>
-      <c r="G56" s="335"/>
-      <c r="H56" s="335"/>
-      <c r="I56" s="335"/>
-      <c r="J56" s="335"/>
-      <c r="K56" s="335"/>
-      <c r="L56" s="335"/>
+      <c r="C56" s="393" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="163"/>
+      <c r="E56" s="394"/>
+      <c r="F56" s="394"/>
+      <c r="G56" s="394"/>
+      <c r="H56" s="394"/>
+      <c r="I56" s="394"/>
+      <c r="J56" s="394"/>
+      <c r="K56" s="394"/>
+      <c r="L56" s="394"/>
       <c r="M56" s="305"/>
       <c r="N56" s="305"/>
       <c r="O56" s="305"/>
@@ -14709,37 +14945,39 @@
     </row>
     <row r="58" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="175"/>
-      <c r="C58" s="338" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="336"/>
-      <c r="E58" s="337"/>
-      <c r="F58" s="337"/>
-      <c r="G58" s="337"/>
-      <c r="H58" s="337"/>
-      <c r="I58" s="181"/>
-      <c r="J58" s="181"/>
-      <c r="K58" s="181"/>
-      <c r="L58" s="181"/>
+      <c r="C58" s="399" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="400"/>
+      <c r="E58" s="401"/>
+      <c r="F58" s="401"/>
+      <c r="G58" s="401"/>
+      <c r="H58" s="401"/>
+      <c r="I58" s="402"/>
+      <c r="J58" s="402"/>
+      <c r="K58" s="402"/>
+      <c r="L58" s="402"/>
       <c r="M58" s="181"/>
       <c r="N58" s="181"/>
       <c r="O58" s="181"/>
       <c r="P58" s="179"/>
       <c r="Q58" s="169"/>
     </row>
-    <row r="59" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="182"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="183"/>
-      <c r="K59" s="183"/>
-      <c r="L59" s="183"/>
-      <c r="M59" s="183"/>
+      <c r="C59" s="405" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="403"/>
+      <c r="E59" s="404"/>
+      <c r="F59" s="404"/>
+      <c r="G59" s="404"/>
+      <c r="H59" s="404"/>
+      <c r="I59" s="404"/>
+      <c r="J59" s="404"/>
+      <c r="K59" s="404"/>
+      <c r="L59" s="404"/>
+      <c r="M59" s="404"/>
       <c r="N59" s="183"/>
       <c r="O59" s="178"/>
       <c r="P59" s="184"/>
@@ -14801,12 +15039,10 @@
       <c r="B63" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="B27:Q47">
+    <sortCondition ref="B27:B47"/>
+  </sortState>
   <mergeCells count="20">
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R26:S26"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -14814,6 +15050,11 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R26:S26"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:I2"/>
